--- a/plans/养老金账户.xlsx
+++ b/plans/养老金账户.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A988991-1FA8-4859-8D4B-0912591656F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C937918-56C7-412B-9A83-8F4BEFA5A734}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>【价值平均策略】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每月首个交易日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买入/卖出节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,15 +109,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月市值轨迹值-5月首个交易日实际市值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调仓倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>买入最大5000，卖出无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度调仓值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调仓限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调仓频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上个月市值轨迹值-调仓月首个交易日定投前实际市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月市值轨迹值-5月首个交易日定投前实际市值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月首个交易日下午2.50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +242,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -265,61 +295,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,114 +661,114 @@
     <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="55.21875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4.0699999999999998E-3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9.4900000000000002E-3</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="K3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="10">
-        <v>4.0699999999999998E-3</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9.4900000000000002E-3</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="B5" s="18">
         <v>2019</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>6</v>
       </c>
       <c r="D5" s="1">
@@ -735,13 +780,19 @@
       <c r="F5" s="1">
         <v>1009</v>
       </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11">
+      <c r="B6" s="18"/>
+      <c r="C6" s="9">
         <v>7</v>
       </c>
       <c r="D6" s="1">
@@ -750,22 +801,28 @@
       <c r="E6" s="1">
         <v>2004</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="19">
         <v>2028</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11">
+      <c r="B7" s="18"/>
+      <c r="C7" s="22">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="19">
         <v>1008</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="20">
         <v>3012</v>
       </c>
       <c r="F7" s="1">
@@ -773,11 +830,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11">
+      <c r="B8" s="18"/>
+      <c r="C8" s="9">
         <v>9</v>
       </c>
       <c r="D8" s="1">
@@ -791,11 +848,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11">
+      <c r="B9" s="18"/>
+      <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="1">
@@ -804,22 +861,22 @@
       <c r="E9" s="1">
         <v>5040</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="20">
         <v>5142</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11">
+      <c r="B10" s="18"/>
+      <c r="C10" s="22">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="20">
         <v>1020</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="20">
         <v>6060</v>
       </c>
       <c r="F10" s="1">
@@ -827,11 +884,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11">
+      <c r="B11" s="18"/>
+      <c r="C11" s="9">
         <v>12</v>
       </c>
       <c r="D11" s="1">
@@ -845,13 +902,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="18">
         <v>2021</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="1">
@@ -860,22 +917,22 @@
       <c r="E12" s="1">
         <v>8113</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="20">
         <v>8346</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11">
+      <c r="B13" s="18"/>
+      <c r="C13" s="22">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="20">
         <v>1033</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="20">
         <v>9146</v>
       </c>
       <c r="F13" s="1">
@@ -883,11 +940,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9">
         <v>3</v>
       </c>
       <c r="D14" s="1">
@@ -901,11 +958,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11">
+      <c r="B15" s="18"/>
+      <c r="C15" s="9">
         <v>4</v>
       </c>
       <c r="D15" s="1">
@@ -914,35 +971,35 @@
       <c r="E15" s="1">
         <v>11224</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="21">
         <v>11642</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23">
         <v>5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="21">
         <v>1046</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="21">
         <v>12270</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="14">
         <v>12762</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="11">
+      <c r="B17" s="18"/>
+      <c r="C17" s="9">
         <v>6</v>
       </c>
       <c r="D17" s="1">
@@ -956,11 +1013,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11">
+      <c r="B18" s="18"/>
+      <c r="C18" s="9">
         <v>7</v>
       </c>
       <c r="D18" s="1">
@@ -969,22 +1026,22 @@
       <c r="E18" s="1">
         <v>14374</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="21">
         <v>15033</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="11">
+      <c r="B19" s="18"/>
+      <c r="C19" s="23">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="21">
         <v>1058</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="21">
         <v>15432</v>
       </c>
       <c r="F19" s="1">
@@ -992,11 +1049,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="11">
+      <c r="B20" s="18"/>
+      <c r="C20" s="9">
         <v>9</v>
       </c>
       <c r="D20" s="1">
@@ -1010,11 +1067,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="11">
+      <c r="B21" s="18"/>
+      <c r="C21" s="9">
         <v>10</v>
       </c>
       <c r="D21" s="1">
@@ -1023,22 +1080,22 @@
       <c r="E21" s="1">
         <v>17562</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="21">
         <v>18522</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11">
+      <c r="B22" s="18"/>
+      <c r="C22" s="22">
         <v>11</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="20">
         <v>1072</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="20">
         <v>18634</v>
       </c>
       <c r="F22" s="1">
@@ -1046,11 +1103,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="11">
+      <c r="B23" s="18"/>
+      <c r="C23" s="9">
         <v>12</v>
       </c>
       <c r="D23" s="1">
@@ -1064,13 +1121,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="18">
         <v>2022</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>1</v>
       </c>
       <c r="D24" s="1">
@@ -1079,22 +1136,22 @@
       <c r="E24" s="1">
         <v>20790</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="21">
         <v>22111</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11">
+      <c r="B25" s="18"/>
+      <c r="C25" s="22">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="20">
         <v>1085</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="20">
         <v>21875</v>
       </c>
       <c r="F25" s="1">
@@ -1102,11 +1159,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11">
+      <c r="B26" s="18"/>
+      <c r="C26" s="9">
         <v>3</v>
       </c>
       <c r="D26" s="1">
@@ -1120,11 +1177,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="11">
+      <c r="B27" s="18"/>
+      <c r="C27" s="9">
         <v>4</v>
       </c>
       <c r="D27" s="1">
@@ -1133,22 +1190,22 @@
       <c r="E27" s="1">
         <v>24058</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="21">
         <v>25803</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14">
+      <c r="B28" s="18"/>
+      <c r="C28" s="23">
         <v>5</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="21">
         <v>1098</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="21">
         <v>25156</v>
       </c>
       <c r="F28" s="1">
@@ -1156,11 +1213,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11">
+      <c r="B29" s="18"/>
+      <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="1">
@@ -1174,11 +1231,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="11">
+      <c r="B30" s="18"/>
+      <c r="C30" s="9">
         <v>7</v>
       </c>
       <c r="D30" s="1">
@@ -1192,11 +1249,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11">
+      <c r="B31" s="18"/>
+      <c r="C31" s="9">
         <v>8</v>
       </c>
       <c r="D31" s="1">
@@ -1210,11 +1267,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11">
+      <c r="B32" s="18"/>
+      <c r="C32" s="9">
         <v>9</v>
       </c>
       <c r="D32" s="1">
@@ -1228,11 +1285,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11">
+      <c r="B33" s="18"/>
+      <c r="C33" s="9">
         <v>10</v>
       </c>
       <c r="D33" s="1">
@@ -1246,11 +1303,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11">
+      <c r="B34" s="18"/>
+      <c r="C34" s="9">
         <v>11</v>
       </c>
       <c r="D34" s="1">
@@ -1264,11 +1321,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="11">
+      <c r="B35" s="18"/>
+      <c r="C35" s="9">
         <v>12</v>
       </c>
       <c r="D35" s="1">
@@ -1282,13 +1339,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <v>1</v>
       </c>
       <c r="D36" s="1">
@@ -1302,11 +1359,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="11">
+      <c r="B37" s="18"/>
+      <c r="C37" s="9">
         <v>2</v>
       </c>
       <c r="D37" s="1">
@@ -1320,11 +1377,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="11">
+      <c r="B38" s="18"/>
+      <c r="C38" s="9">
         <v>3</v>
       </c>
       <c r="D38" s="1">
@@ -1338,11 +1395,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="11">
+      <c r="B39" s="18"/>
+      <c r="C39" s="9">
         <v>4</v>
       </c>
       <c r="D39" s="1">
@@ -1351,22 +1408,22 @@
       <c r="E39" s="1">
         <v>37537</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="13">
         <v>41666</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14">
+      <c r="B40" s="18"/>
+      <c r="C40" s="11">
         <v>5</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="13">
         <v>1153</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="13">
         <v>38690</v>
       </c>
       <c r="F40" s="1">
@@ -1374,11 +1431,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="11">
+      <c r="B41" s="18"/>
+      <c r="C41" s="9">
         <v>6</v>
       </c>
       <c r="D41" s="1">
@@ -1392,11 +1449,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="11">
+      <c r="B42" s="18"/>
+      <c r="C42" s="9">
         <v>7</v>
       </c>
       <c r="D42" s="1">
@@ -1410,11 +1467,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11">
+      <c r="B43" s="18"/>
+      <c r="C43" s="9">
         <v>8</v>
       </c>
       <c r="D43" s="1">
@@ -1428,11 +1485,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11">
+      <c r="B44" s="18"/>
+      <c r="C44" s="9">
         <v>9</v>
       </c>
       <c r="D44" s="1">
@@ -1446,11 +1503,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11">
+      <c r="B45" s="18"/>
+      <c r="C45" s="9">
         <v>10</v>
       </c>
       <c r="D45" s="1">
@@ -1464,11 +1521,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="11">
+      <c r="B46" s="18"/>
+      <c r="C46" s="9">
         <v>11</v>
       </c>
       <c r="D46" s="1">
@@ -1482,11 +1539,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="11">
+      <c r="B47" s="18"/>
+      <c r="C47" s="9">
         <v>12</v>
       </c>
       <c r="D47" s="1">
@@ -1500,13 +1557,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="18">
         <v>2024</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>1</v>
       </c>
       <c r="D48" s="1">
@@ -1520,11 +1577,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="11">
+      <c r="B49" s="18"/>
+      <c r="C49" s="9">
         <v>2</v>
       </c>
       <c r="D49" s="1">
@@ -1538,11 +1595,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="11">
+      <c r="B50" s="18"/>
+      <c r="C50" s="9">
         <v>3</v>
       </c>
       <c r="D50" s="1">
@@ -1556,11 +1613,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="11">
+      <c r="B51" s="18"/>
+      <c r="C51" s="9">
         <v>4</v>
       </c>
       <c r="D51" s="1">
@@ -1569,22 +1626,22 @@
       <c r="E51" s="1">
         <v>51696</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="13">
         <v>59434</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14">
+      <c r="B52" s="18"/>
+      <c r="C52" s="11">
         <v>5</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="13">
         <v>1212</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="13">
         <v>52908</v>
       </c>
       <c r="F52" s="1">
@@ -1592,11 +1649,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="11">
+      <c r="B53" s="18"/>
+      <c r="C53" s="9">
         <v>6</v>
       </c>
       <c r="D53" s="1">
@@ -1610,11 +1667,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="11">
+      <c r="B54" s="18"/>
+      <c r="C54" s="9">
         <v>7</v>
       </c>
       <c r="D54" s="1">
@@ -1628,11 +1685,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="11">
+      <c r="B55" s="18"/>
+      <c r="C55" s="9">
         <v>8</v>
       </c>
       <c r="D55" s="1">
@@ -1646,11 +1703,11 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="11">
+      <c r="B56" s="18"/>
+      <c r="C56" s="9">
         <v>9</v>
       </c>
       <c r="D56" s="1">
@@ -1664,11 +1721,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="11">
+      <c r="B57" s="18"/>
+      <c r="C57" s="9">
         <v>10</v>
       </c>
       <c r="D57" s="1">
@@ -1682,11 +1739,11 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="11">
+      <c r="B58" s="18"/>
+      <c r="C58" s="9">
         <v>11</v>
       </c>
       <c r="D58" s="1">
@@ -1700,11 +1757,11 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="11">
+      <c r="B59" s="18"/>
+      <c r="C59" s="9">
         <v>12</v>
       </c>
       <c r="D59" s="1">
@@ -1718,13 +1775,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="11">
+      <c r="B60" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C60" s="9">
         <v>1</v>
       </c>
       <c r="D60" s="1">
@@ -1738,11 +1795,11 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="11">
+      <c r="B61" s="18"/>
+      <c r="C61" s="9">
         <v>2</v>
       </c>
       <c r="D61" s="1">
@@ -1756,11 +1813,11 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="11">
+      <c r="B62" s="18"/>
+      <c r="C62" s="9">
         <v>3</v>
       </c>
       <c r="D62" s="1">
@@ -1774,11 +1831,11 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="11">
+      <c r="B63" s="18"/>
+      <c r="C63" s="9">
         <v>4</v>
       </c>
       <c r="D63" s="1">
@@ -1787,22 +1844,22 @@
       <c r="E63" s="1">
         <v>66570</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F63" s="13">
         <v>79341</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14">
+      <c r="B64" s="18"/>
+      <c r="C64" s="11">
         <v>5</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="13">
         <v>1273</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="13">
         <v>67843</v>
       </c>
       <c r="F64" s="1">
@@ -1810,37 +1867,35 @@
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="18"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="18"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="18"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="18"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B36:B47"/>
     <mergeCell ref="B48:B59"/>
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="A2:C2"/>
@@ -1848,6 +1903,8 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B23"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B36:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
